--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N2">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O2">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P2">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q2">
-        <v>0.2923726304235</v>
+        <v>16.73724425806125</v>
       </c>
       <c r="R2">
-        <v>1.169490521694</v>
+        <v>66.94897703224501</v>
       </c>
       <c r="S2">
-        <v>8.035725093040478E-05</v>
+        <v>0.01631481068149147</v>
       </c>
       <c r="T2">
-        <v>4.112156489155223E-05</v>
+        <v>0.01038606130400202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H3">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I3">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J3">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P3">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q3">
-        <v>19.2469021239825</v>
+        <v>110.3532344677125</v>
       </c>
       <c r="R3">
-        <v>115.481412743895</v>
+        <v>662.1194068062752</v>
       </c>
       <c r="S3">
-        <v>0.00528992108929458</v>
+        <v>0.1075680142245541</v>
       </c>
       <c r="T3">
-        <v>0.004060551428016391</v>
+        <v>0.1027172192092989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H4">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I4">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J4">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N4">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O4">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P4">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q4">
-        <v>14.85404092730983</v>
+        <v>51.195992207415</v>
       </c>
       <c r="R4">
-        <v>89.12424556385901</v>
+        <v>307.17595324449</v>
       </c>
       <c r="S4">
-        <v>0.00408256372149942</v>
+        <v>0.04990384962045356</v>
       </c>
       <c r="T4">
-        <v>0.003133782086627122</v>
+        <v>0.04765342837092113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H5">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I5">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J5">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N5">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O5">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P5">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q5">
-        <v>26.16723586823775</v>
+        <v>164.7155460382988</v>
       </c>
       <c r="R5">
-        <v>104.668943472951</v>
+        <v>658.8621841531951</v>
       </c>
       <c r="S5">
-        <v>0.00719194247345684</v>
+        <v>0.1605582680445759</v>
       </c>
       <c r="T5">
-        <v>0.003680363945933167</v>
+        <v>0.1022119132934313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H6">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I6">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J6">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N6">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O6">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P6">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q6">
-        <v>0.8232864750403334</v>
+        <v>16.6852397069325</v>
       </c>
       <c r="R6">
-        <v>4.939718850242</v>
+        <v>100.111438241595</v>
       </c>
       <c r="S6">
-        <v>0.0002262764396468863</v>
+        <v>0.0162641186802779</v>
       </c>
       <c r="T6">
-        <v>0.0001736901372676532</v>
+        <v>0.01553068591784802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H7">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I7">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J7">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N7">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O7">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P7">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q7">
-        <v>15.12824618016067</v>
+        <v>81.16058201600249</v>
       </c>
       <c r="R7">
-        <v>90.76947708096399</v>
+        <v>486.9634920960149</v>
       </c>
       <c r="S7">
-        <v>0.004157927753617793</v>
+        <v>0.07911215908514921</v>
       </c>
       <c r="T7">
-        <v>0.003191631631653158</v>
+        <v>0.07554458493494499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
         <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J8">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N8">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O8">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P8">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q8">
-        <v>0.3955667838659999</v>
+        <v>3.949506440019001</v>
       </c>
       <c r="R8">
-        <v>2.373400703196</v>
+        <v>23.69703864011401</v>
       </c>
       <c r="S8">
-        <v>0.00010871968167749</v>
+        <v>0.003849824311622085</v>
       </c>
       <c r="T8">
-        <v>8.345339207089935E-05</v>
+        <v>0.003676215932634626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
         <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J9">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P9">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q9">
-        <v>26.04017743227</v>
+        <v>26.04017743227001</v>
       </c>
       <c r="R9">
-        <v>234.36159689043</v>
+        <v>234.3615968904301</v>
       </c>
       <c r="S9">
-        <v>0.007157021056198681</v>
+        <v>0.02538294586429983</v>
       </c>
       <c r="T9">
-        <v>0.00824061027930182</v>
+        <v>0.0363574474250065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H10">
         <v>2.626902</v>
       </c>
       <c r="I10">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J10">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N10">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O10">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P10">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q10">
-        <v>20.096837342534</v>
+        <v>12.080776130692</v>
       </c>
       <c r="R10">
-        <v>180.871536082806</v>
+        <v>108.726985176228</v>
       </c>
       <c r="S10">
-        <v>0.005523521811540029</v>
+        <v>0.01177586778437513</v>
       </c>
       <c r="T10">
-        <v>0.006359795543524667</v>
+        <v>0.01686725000884985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H11">
         <v>2.626902</v>
       </c>
       <c r="I11">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J11">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N11">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O11">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P11">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q11">
-        <v>35.403072168789</v>
+        <v>38.86811352090901</v>
       </c>
       <c r="R11">
-        <v>212.418433012734</v>
+        <v>233.208681125454</v>
       </c>
       <c r="S11">
-        <v>0.009730368912622897</v>
+        <v>0.03788711593516548</v>
       </c>
       <c r="T11">
-        <v>0.007469045892430509</v>
+        <v>0.03617859101309114</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H12">
         <v>2.626902</v>
       </c>
       <c r="I12">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J12">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N12">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O12">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P12">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q12">
-        <v>1.113868909892</v>
+        <v>3.937234867326</v>
       </c>
       <c r="R12">
-        <v>10.024820189028</v>
+        <v>35.435113805934</v>
       </c>
       <c r="S12">
-        <v>0.0003061416636916967</v>
+        <v>0.0038378624628157</v>
       </c>
       <c r="T12">
-        <v>0.0003524922060352709</v>
+        <v>0.005497190257671329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8756339999999999</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H13">
         <v>2.626902</v>
       </c>
       <c r="I13">
-        <v>0.02845125902248993</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J13">
-        <v>0.02898259453590742</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N13">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O13">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P13">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q13">
-        <v>20.467824496264</v>
+        <v>19.151554246662</v>
       </c>
       <c r="R13">
-        <v>184.210420466376</v>
+        <v>172.363988219958</v>
       </c>
       <c r="S13">
-        <v>0.005625485896759143</v>
+        <v>0.01866818557302918</v>
       </c>
       <c r="T13">
-        <v>0.006477197222544251</v>
+        <v>0.02673951160437522</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H14">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I14">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J14">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N14">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O14">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P14">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q14">
-        <v>1.599480127611</v>
+        <v>4.728622632310501</v>
       </c>
       <c r="R14">
-        <v>9.596880765665999</v>
+        <v>28.37173579386301</v>
       </c>
       <c r="S14">
-        <v>0.0004396096371485194</v>
+        <v>0.004609276284726808</v>
       </c>
       <c r="T14">
-        <v>0.0003374450222907254</v>
+        <v>0.00440142031018765</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H15">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I15">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J15">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P15">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q15">
-        <v>105.293841700545</v>
+        <v>31.177103829465</v>
       </c>
       <c r="R15">
-        <v>947.6445753049051</v>
+        <v>280.593934465185</v>
       </c>
       <c r="S15">
-        <v>0.02893952025092475</v>
+        <v>0.03039022067984347</v>
       </c>
       <c r="T15">
-        <v>0.03332102926416393</v>
+        <v>0.04352965398534653</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H16">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I16">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J16">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N16">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O16">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P16">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q16">
-        <v>81.261858346789</v>
+        <v>14.46394183552511</v>
       </c>
       <c r="R16">
-        <v>731.356725121101</v>
+        <v>130.175476519726</v>
       </c>
       <c r="S16">
-        <v>0.0223344419509627</v>
+        <v>0.01409888444694483</v>
       </c>
       <c r="T16">
-        <v>0.02571592712643597</v>
+        <v>0.0201946398487967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H17">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I17">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J17">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N17">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O17">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P17">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q17">
-        <v>143.1528447280815</v>
+        <v>46.5355973110655</v>
       </c>
       <c r="R17">
-        <v>858.917068368489</v>
+        <v>279.213583866393</v>
       </c>
       <c r="S17">
-        <v>0.03934489028112227</v>
+        <v>0.04536107906261153</v>
       </c>
       <c r="T17">
-        <v>0.03020119728051819</v>
+        <v>0.04331551470233456</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H18">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I18">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J18">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N18">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O18">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P18">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q18">
-        <v>4.503945373582</v>
+        <v>4.713930255616999</v>
       </c>
       <c r="R18">
-        <v>40.535508362238</v>
+        <v>42.425372300553</v>
       </c>
       <c r="S18">
-        <v>0.001237888334614354</v>
+        <v>0.004594954730920232</v>
       </c>
       <c r="T18">
-        <v>0.001425307436536858</v>
+        <v>0.006581616883353249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.540639</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H19">
-        <v>10.621917</v>
+        <v>3.145109</v>
       </c>
       <c r="I19">
-        <v>0.1150430856889177</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J19">
-        <v>0.1171915486778959</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N19">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O19">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P19">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q19">
-        <v>82.76195037724401</v>
+        <v>22.92956708136233</v>
       </c>
       <c r="R19">
-        <v>744.857553395196</v>
+        <v>206.366103732261</v>
       </c>
       <c r="S19">
-        <v>0.02274673523414508</v>
+        <v>0.02235084462968326</v>
       </c>
       <c r="T19">
-        <v>0.02619064254795023</v>
+        <v>0.03201439513256488</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H20">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I20">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J20">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N20">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O20">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P20">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q20">
-        <v>0.472292285775</v>
+        <v>5.561003521725751</v>
       </c>
       <c r="R20">
-        <v>1.8891691431</v>
+        <v>22.244014086903</v>
       </c>
       <c r="S20">
-        <v>0.0001298073272643295</v>
+        <v>0.005420648600044525</v>
       </c>
       <c r="T20">
-        <v>6.642686714260639E-05</v>
+        <v>0.003450802449787814</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H21">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I21">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J21">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P21">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q21">
-        <v>31.09102033612501</v>
+        <v>36.66521895999751</v>
       </c>
       <c r="R21">
-        <v>186.54612201675</v>
+        <v>219.991313759985</v>
       </c>
       <c r="S21">
-        <v>0.008545221620824816</v>
+        <v>0.03573982052868013</v>
       </c>
       <c r="T21">
-        <v>0.006559325038964584</v>
+        <v>0.03412812820065475</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H22">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I22">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J22">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N22">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O22">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P22">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q22">
-        <v>23.99488944089167</v>
+        <v>17.010033944301</v>
       </c>
       <c r="R22">
-        <v>143.96933664535</v>
+        <v>102.060203665806</v>
       </c>
       <c r="S22">
-        <v>0.006594883211387192</v>
+        <v>0.01658071539186346</v>
       </c>
       <c r="T22">
-        <v>0.005062242326410693</v>
+        <v>0.01583300565535837</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H23">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I23">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J23">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N23">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O23">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P23">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q23">
-        <v>42.26997452778751</v>
+        <v>54.72727275045826</v>
       </c>
       <c r="R23">
-        <v>169.07989811115</v>
+        <v>218.909091001833</v>
       </c>
       <c r="S23">
-        <v>0.01161770493028414</v>
+        <v>0.05334600369520437</v>
       </c>
       <c r="T23">
-        <v>0.005945178582519475</v>
+        <v>0.03396023867628847</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H24">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I24">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J24">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N24">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O24">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P24">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q24">
-        <v>1.329918777216667</v>
+        <v>5.5437248414655</v>
       </c>
       <c r="R24">
-        <v>7.979512663300001</v>
+        <v>33.26234904879301</v>
       </c>
       <c r="S24">
-        <v>0.0003655219599148465</v>
+        <v>0.005403806018737495</v>
       </c>
       <c r="T24">
-        <v>0.0002805752092043973</v>
+        <v>0.005160120611992163</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.045475</v>
+        <v>1.2329145</v>
       </c>
       <c r="H25">
-        <v>2.09095</v>
+        <v>2.465829</v>
       </c>
       <c r="I25">
-        <v>0.03396976365300761</v>
+        <v>0.1427762648860562</v>
       </c>
       <c r="J25">
-        <v>0.02306943922721732</v>
+        <v>0.1176322281990683</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N25">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O25">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P25">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q25">
-        <v>24.43783454643334</v>
+        <v>26.9658657935235</v>
       </c>
       <c r="R25">
-        <v>146.6270072786</v>
+        <v>161.795194761141</v>
       </c>
       <c r="S25">
-        <v>0.00671662460333229</v>
+        <v>0.02628527065152619</v>
       </c>
       <c r="T25">
-        <v>0.00515569120297556</v>
+        <v>0.02509993260498677</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H26">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I26">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J26">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N26">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O26">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P26">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q26">
-        <v>0.5618662821589999</v>
+        <v>4.340445486678001</v>
       </c>
       <c r="R26">
-        <v>3.371197692954</v>
+        <v>26.042672920068</v>
       </c>
       <c r="S26">
-        <v>0.000154426321504119</v>
+        <v>0.004230896394690504</v>
       </c>
       <c r="T26">
-        <v>0.0001185378779233336</v>
+        <v>0.004040103515511917</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H27">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I27">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J27">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P27">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q27">
-        <v>36.987680152605</v>
+        <v>28.61774561574001</v>
       </c>
       <c r="R27">
-        <v>332.8891213734451</v>
+        <v>257.55971054166</v>
       </c>
       <c r="S27">
-        <v>0.01016589101056135</v>
+        <v>0.02789545845499677</v>
       </c>
       <c r="T27">
-        <v>0.01170502997016308</v>
+        <v>0.03995626313809555</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H28">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I28">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J28">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N28">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O28">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P28">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q28">
-        <v>28.54571147366322</v>
+        <v>13.27658304357067</v>
       </c>
       <c r="R28">
-        <v>256.911403262969</v>
+        <v>119.489247392136</v>
       </c>
       <c r="S28">
-        <v>0.007845655376679601</v>
+        <v>0.01294149356448751</v>
       </c>
       <c r="T28">
-        <v>0.009033505398021667</v>
+        <v>0.01853684258664725</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H29">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I29">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J29">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N29">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O29">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P29">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q29">
-        <v>50.2868121081235</v>
+        <v>42.71544570685801</v>
       </c>
       <c r="R29">
-        <v>301.720872648741</v>
+        <v>256.292674241148</v>
       </c>
       <c r="S29">
-        <v>0.01382109526876494</v>
+        <v>0.0416373447825658</v>
       </c>
       <c r="T29">
-        <v>0.01060909362975355</v>
+        <v>0.03975970275323447</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H30">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I30">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J30">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N30">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O30">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P30">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q30">
-        <v>1.582148473380222</v>
+        <v>4.326959221212</v>
       </c>
       <c r="R30">
-        <v>14.239336260422</v>
+        <v>38.942632990908</v>
       </c>
       <c r="S30">
-        <v>0.000434846112990857</v>
+        <v>0.004217750510906669</v>
       </c>
       <c r="T30">
-        <v>0.000500682800915239</v>
+        <v>0.00604132567086155</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.243757666666667</v>
+        <v>0.9623080000000001</v>
       </c>
       <c r="H31">
-        <v>3.731273</v>
+        <v>2.886924</v>
       </c>
       <c r="I31">
-        <v>0.04041240008444284</v>
+        <v>0.1114389861664948</v>
       </c>
       <c r="J31">
-        <v>0.04116711337605242</v>
+        <v>0.1377205405408758</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N31">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O31">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P31">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q31">
-        <v>29.07266464894711</v>
+        <v>21.047257032044</v>
       </c>
       <c r="R31">
-        <v>261.653981840524</v>
+        <v>189.425313288396</v>
       </c>
       <c r="S31">
-        <v>0.007990485993941981</v>
+        <v>0.0205160424588476</v>
       </c>
       <c r="T31">
-        <v>0.009200263699275554</v>
+        <v>0.02938630287652503</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H32">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I32">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J32">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N32">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O32">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P32">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q32">
-        <v>10.581735748906</v>
+        <v>3.632253168705001</v>
       </c>
       <c r="R32">
-        <v>63.49041449343599</v>
+        <v>21.79351901223</v>
       </c>
       <c r="S32">
-        <v>0.002908340611849994</v>
+        <v>0.003540578238626594</v>
       </c>
       <c r="T32">
-        <v>0.002232446651898993</v>
+        <v>0.003380915355613824</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H33">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I33">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J33">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P33">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q33">
-        <v>696.5960937110701</v>
+        <v>23.94843974265</v>
       </c>
       <c r="R33">
-        <v>6269.364843399631</v>
+        <v>215.53595768385</v>
       </c>
       <c r="S33">
-        <v>0.191456180485836</v>
+        <v>0.02334400182576408</v>
       </c>
       <c r="T33">
-        <v>0.220443080516158</v>
+        <v>0.03343695107758072</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H34">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I34">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J34">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N34">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O34">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P34">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q34">
-        <v>537.6068740379385</v>
+        <v>11.11035974938445</v>
       </c>
       <c r="R34">
-        <v>4838.461866341447</v>
+        <v>99.99323774446</v>
       </c>
       <c r="S34">
-        <v>0.1477587365698401</v>
+        <v>0.01082994387365574</v>
       </c>
       <c r="T34">
-        <v>0.1701297444667281</v>
+        <v>0.01551234900421876</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H35">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I35">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J35">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N35">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O35">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P35">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q35">
-        <v>947.0612034919491</v>
+        <v>35.745942092255</v>
       </c>
       <c r="R35">
-        <v>5682.367220951694</v>
+        <v>214.47565255353</v>
       </c>
       <c r="S35">
-        <v>0.2602953452421953</v>
+        <v>0.03484374541441094</v>
       </c>
       <c r="T35">
-        <v>0.1998031006489287</v>
+        <v>0.03327246172206529</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H36">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I36">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J36">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N36">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O36">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P36">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q36">
-        <v>29.79690647481645</v>
+        <v>3.62096733857</v>
       </c>
       <c r="R36">
-        <v>268.172158273348</v>
+        <v>32.58870604713</v>
       </c>
       <c r="S36">
-        <v>0.008189540474696137</v>
+        <v>0.00352957725308817</v>
       </c>
       <c r="T36">
-        <v>0.00942945547995686</v>
+        <v>0.005055615691641938</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>23.42392733333334</v>
+        <v>0.8052966666666667</v>
       </c>
       <c r="H37">
-        <v>70.271782</v>
+        <v>2.41589</v>
       </c>
       <c r="I37">
-        <v>0.7610945028226961</v>
+        <v>0.0932564668449094</v>
       </c>
       <c r="J37">
-        <v>0.7753081633885379</v>
+        <v>0.1152498911253973</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N37">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O37">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P37">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q37">
-        <v>547.5310845306464</v>
+        <v>17.61316120242333</v>
       </c>
       <c r="R37">
-        <v>4927.779760775817</v>
+        <v>158.51845082181</v>
       </c>
       <c r="S37">
-        <v>0.1504863594382786</v>
+        <v>0.01716862023936388</v>
       </c>
       <c r="T37">
-        <v>0.1732703356248673</v>
+        <v>0.02459159827427672</v>
       </c>
     </row>
   </sheetData>
